--- a/Results/Categorization/dp.xlsx
+++ b/Results/Categorization/dp.xlsx
@@ -4030,331 +4030,331 @@
     <t>FOOD|FOOD</t>
   </si>
   <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>|place</t>
@@ -5958,7 +5958,7 @@
         <v>1280</v>
       </c>
       <c r="F11" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="G11" t="s">
         <v>1455</v>
@@ -5984,7 +5984,7 @@
         <v>1277</v>
       </c>
       <c r="F12" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G12" t="s">
         <v>1456</v>
@@ -6010,7 +6010,7 @@
         <v>1281</v>
       </c>
       <c r="F13" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G13" t="s">
         <v>1457</v>
@@ -6036,7 +6036,7 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G14" t="s">
         <v>1458</v>
@@ -6062,7 +6062,7 @@
         <v>1276</v>
       </c>
       <c r="F15" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G15" t="s">
         <v>1459</v>
@@ -6088,7 +6088,7 @@
         <v>1282</v>
       </c>
       <c r="F16" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G16" t="s">
         <v>1460</v>
@@ -6114,7 +6114,7 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G17" t="s">
         <v>1461</v>
@@ -6140,7 +6140,7 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G18" t="s">
         <v>1462</v>
@@ -6166,7 +6166,7 @@
         <v>1275</v>
       </c>
       <c r="F19" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G19" t="s">
         <v>1463</v>
@@ -6278,7 +6278,7 @@
         <v>1275</v>
       </c>
       <c r="F24" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G24" t="s">
         <v>1464</v>
@@ -6304,7 +6304,7 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G25" t="s">
         <v>1465</v>
@@ -6356,7 +6356,7 @@
         <v>1275</v>
       </c>
       <c r="F27" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G27" t="s">
         <v>1466</v>
@@ -6468,7 +6468,7 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G32" t="s">
         <v>1468</v>
@@ -6494,7 +6494,7 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G33" t="s">
         <v>1469</v>
@@ -6664,7 +6664,7 @@
         <v>1277</v>
       </c>
       <c r="F40" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="G40" t="s">
         <v>1470</v>
@@ -6762,7 +6762,7 @@
         <v>1277</v>
       </c>
       <c r="F44" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G44" t="s">
         <v>1473</v>
@@ -6952,7 +6952,7 @@
         <v>1277</v>
       </c>
       <c r="F52" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="G52" t="s">
         <v>1477</v>
@@ -7004,7 +7004,7 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G54" t="s">
         <v>1479</v>
@@ -7238,7 +7238,7 @@
         <v>1277</v>
       </c>
       <c r="F63" t="s">
-        <v>1337</v>
+        <v>1353</v>
       </c>
       <c r="G63" t="s">
         <v>1488</v>
@@ -7290,7 +7290,7 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
       <c r="G65" t="s">
         <v>1490</v>
@@ -7500,7 +7500,7 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1341</v>
+        <v>1365</v>
       </c>
       <c r="G74" t="s">
         <v>1494</v>
@@ -7552,7 +7552,7 @@
         <v>1283</v>
       </c>
       <c r="F76" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G76" t="s">
         <v>1495</v>
@@ -7578,7 +7578,7 @@
         <v>1275</v>
       </c>
       <c r="F77" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G77" t="s">
         <v>1496</v>
@@ -7604,7 +7604,7 @@
         <v>1284</v>
       </c>
       <c r="F78" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="G78" t="s">
         <v>1497</v>
@@ -7872,7 +7872,7 @@
         <v>1284</v>
       </c>
       <c r="F89" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="G89" t="s">
         <v>1503</v>
@@ -7898,7 +7898,7 @@
         <v>1283</v>
       </c>
       <c r="F90" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G90" t="s">
         <v>1504</v>
@@ -7924,7 +7924,7 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G91" t="s">
         <v>1505</v>
@@ -8002,7 +8002,7 @@
         <v>1298</v>
       </c>
       <c r="F94" t="s">
-        <v>1371</v>
+        <v>1351</v>
       </c>
       <c r="G94" t="s">
         <v>1508</v>
@@ -8054,7 +8054,7 @@
         <v>1288</v>
       </c>
       <c r="F96" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G96" t="s">
         <v>1510</v>
@@ -8080,7 +8080,7 @@
         <v>1299</v>
       </c>
       <c r="F97" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G97" t="s">
         <v>1511</v>
@@ -8132,7 +8132,7 @@
         <v>1276</v>
       </c>
       <c r="F99" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G99" t="s">
         <v>1513</v>
@@ -8256,7 +8256,7 @@
         <v>1275</v>
       </c>
       <c r="F104" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G104" t="s">
         <v>1517</v>
@@ -8308,7 +8308,7 @@
         <v>1284</v>
       </c>
       <c r="F106" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="G106" t="s">
         <v>1519</v>
@@ -8334,7 +8334,7 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1345</v>
+        <v>1374</v>
       </c>
       <c r="G107" t="s">
         <v>1520</v>
@@ -8432,7 +8432,7 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1341</v>
+        <v>1365</v>
       </c>
       <c r="G111" t="s">
         <v>1522</v>
@@ -8536,7 +8536,7 @@
         <v>1276</v>
       </c>
       <c r="F115" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G115" t="s">
         <v>1524</v>
@@ -8614,7 +8614,7 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1341</v>
+        <v>1365</v>
       </c>
       <c r="G118" t="s">
         <v>1522</v>
@@ -8666,7 +8666,7 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G120" t="s">
         <v>1527</v>
@@ -8718,7 +8718,7 @@
         <v>1277</v>
       </c>
       <c r="F122" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G122" t="s">
         <v>1529</v>
@@ -8914,7 +8914,7 @@
         <v>1276</v>
       </c>
       <c r="F130" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G130" t="s">
         <v>1533</v>
@@ -8966,7 +8966,7 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G132" t="s">
         <v>1534</v>
@@ -8992,7 +8992,7 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G133" t="s">
         <v>1535</v>
@@ -9018,7 +9018,7 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1379</v>
+        <v>1366</v>
       </c>
       <c r="G134" t="s">
         <v>1536</v>
@@ -9116,7 +9116,7 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G138" t="s">
         <v>1537</v>
@@ -9142,7 +9142,7 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G139" t="s">
         <v>1538</v>
@@ -9194,7 +9194,7 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="G141" t="s">
         <v>1540</v>
@@ -9272,7 +9272,7 @@
         <v>1297</v>
       </c>
       <c r="F144" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="G144" t="s">
         <v>1542</v>
@@ -9468,7 +9468,7 @@
         <v>1275</v>
       </c>
       <c r="F152" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G152" t="s">
         <v>1548</v>
@@ -9540,7 +9540,7 @@
         <v>1275</v>
       </c>
       <c r="F155" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G155" t="s">
         <v>1550</v>
@@ -9644,7 +9644,7 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G159" t="s">
         <v>1554</v>
@@ -9742,7 +9742,7 @@
         <v>1284</v>
       </c>
       <c r="F163" t="s">
-        <v>1337</v>
+        <v>1367</v>
       </c>
       <c r="G163" t="s">
         <v>1556</v>
@@ -9924,7 +9924,7 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1387</v>
+        <v>1364</v>
       </c>
       <c r="G170" t="s">
         <v>1558</v>
@@ -10002,7 +10002,7 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G173" t="s">
         <v>1561</v>
@@ -10080,7 +10080,7 @@
         <v>1275</v>
       </c>
       <c r="F176" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G176" t="s">
         <v>1563</v>
@@ -10218,7 +10218,7 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G182" t="s">
         <v>1504</v>
@@ -10244,7 +10244,7 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G183" t="s">
         <v>1504</v>
@@ -10296,7 +10296,7 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1389</v>
+        <v>1343</v>
       </c>
       <c r="G185" t="s">
         <v>1566</v>
@@ -10362,7 +10362,7 @@
         <v>1277</v>
       </c>
       <c r="F188" t="s">
-        <v>1337</v>
+        <v>1353</v>
       </c>
       <c r="G188" t="s">
         <v>1567</v>
@@ -10408,7 +10408,7 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1360</v>
+        <v>1336</v>
       </c>
       <c r="G190" t="s">
         <v>1568</v>
@@ -10564,7 +10564,7 @@
         <v>1276</v>
       </c>
       <c r="F196" t="s">
-        <v>1344</v>
+        <v>1388</v>
       </c>
       <c r="G196" t="s">
         <v>1569</v>
@@ -10616,7 +10616,7 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G198" t="s">
         <v>1571</v>
@@ -10760,7 +10760,7 @@
         <v>1277</v>
       </c>
       <c r="F204" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G204" t="s">
         <v>1573</v>
@@ -10812,7 +10812,7 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="G206" t="s">
         <v>1574</v>
@@ -10838,7 +10838,7 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G207" t="s">
         <v>1575</v>
@@ -10890,7 +10890,7 @@
         <v>1311</v>
       </c>
       <c r="F209" t="s">
-        <v>1354</v>
+        <v>1374</v>
       </c>
       <c r="G209" t="s">
         <v>1576</v>
@@ -10962,7 +10962,7 @@
         <v>1275</v>
       </c>
       <c r="F212" t="s">
-        <v>1341</v>
+        <v>1365</v>
       </c>
       <c r="G212" t="s">
         <v>1578</v>
@@ -10988,7 +10988,7 @@
         <v>1277</v>
       </c>
       <c r="F213" t="s">
-        <v>1337</v>
+        <v>1392</v>
       </c>
       <c r="G213" t="s">
         <v>1579</v>
@@ -11014,7 +11014,7 @@
         <v>1276</v>
       </c>
       <c r="F214" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G214" t="s">
         <v>1580</v>
@@ -11086,7 +11086,7 @@
         <v>1277</v>
       </c>
       <c r="F217" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="G217" t="s">
         <v>1582</v>
@@ -11138,7 +11138,7 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G219" t="s">
         <v>1583</v>
@@ -11184,7 +11184,7 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G221" t="s">
         <v>1584</v>
@@ -11210,7 +11210,7 @@
         <v>1284</v>
       </c>
       <c r="F222" t="s">
-        <v>1354</v>
+        <v>1374</v>
       </c>
       <c r="G222" t="s">
         <v>1585</v>
@@ -11314,7 +11314,7 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1396</v>
+        <v>1362</v>
       </c>
       <c r="G226" t="s">
         <v>1589</v>
@@ -11340,7 +11340,7 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G227" t="s">
         <v>1590</v>
@@ -11366,7 +11366,7 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G228" t="s">
         <v>1591</v>
@@ -11418,7 +11418,7 @@
         <v>1275</v>
       </c>
       <c r="F230" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G230" t="s">
         <v>1548</v>
@@ -11582,7 +11582,7 @@
         <v>1314</v>
       </c>
       <c r="F237" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G237" t="s">
         <v>1594</v>
@@ -11628,7 +11628,7 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G239" t="s">
         <v>1595</v>
@@ -11654,7 +11654,7 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G240" t="s">
         <v>1596</v>
@@ -11680,7 +11680,7 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G241" t="s">
         <v>1597</v>
@@ -11706,7 +11706,7 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G242" t="s">
         <v>1598</v>
@@ -11784,7 +11784,7 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G245" t="s">
         <v>1600</v>
@@ -11810,7 +11810,7 @@
         <v>1284</v>
       </c>
       <c r="F246" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G246" t="s">
         <v>1601</v>
@@ -11836,7 +11836,7 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G247" t="s">
         <v>1602</v>
@@ -12012,7 +12012,7 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="G254" t="s">
         <v>1604</v>
@@ -12064,7 +12064,7 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G256" t="s">
         <v>1606</v>
@@ -12116,7 +12116,7 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G258" t="s">
         <v>1607</v>
@@ -12168,7 +12168,7 @@
         <v>1275</v>
       </c>
       <c r="F260" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G260" t="s">
         <v>1608</v>
@@ -12266,7 +12266,7 @@
         <v>1284</v>
       </c>
       <c r="F264" t="s">
-        <v>1390</v>
+        <v>1372</v>
       </c>
       <c r="G264" t="s">
         <v>1610</v>
@@ -12344,7 +12344,7 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G267" t="s">
         <v>972</v>
@@ -12370,7 +12370,7 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G268" t="s">
         <v>1611</v>
@@ -12422,7 +12422,7 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G270" t="s">
         <v>1612</v>
@@ -12448,7 +12448,7 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G271" t="s">
         <v>1613</v>
@@ -12520,7 +12520,7 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G274" t="s">
         <v>1615</v>
@@ -12572,7 +12572,7 @@
         <v>1303</v>
       </c>
       <c r="F276" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G276" t="s">
         <v>1617</v>
@@ -12598,7 +12598,7 @@
         <v>1285</v>
       </c>
       <c r="F277" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G277" t="s">
         <v>1618</v>
@@ -12624,7 +12624,7 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G278" t="s">
         <v>1619</v>
@@ -12650,7 +12650,7 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="G279" t="s">
         <v>1620</v>
@@ -12676,7 +12676,7 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G280" t="s">
         <v>1621</v>
@@ -12702,7 +12702,7 @@
         <v>1275</v>
       </c>
       <c r="F281" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="G281" t="s">
         <v>1622</v>
@@ -12728,7 +12728,7 @@
         <v>1275</v>
       </c>
       <c r="F282" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G282" t="s">
         <v>1623</v>
@@ -12754,7 +12754,7 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G283" t="s">
         <v>1624</v>
@@ -12846,7 +12846,7 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G287" t="s">
         <v>1626</v>
@@ -12924,7 +12924,7 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G290" t="s">
         <v>1627</v>
@@ -12950,7 +12950,7 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G291" t="s">
         <v>1628</v>
@@ -13042,7 +13042,7 @@
         <v>1284</v>
       </c>
       <c r="F295" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G295" t="s">
         <v>1629</v>
@@ -13120,7 +13120,7 @@
         <v>1275</v>
       </c>
       <c r="F298" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G298" t="s">
         <v>1632</v>
@@ -13146,7 +13146,7 @@
         <v>1297</v>
       </c>
       <c r="F299" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="G299" t="s">
         <v>1633</v>
@@ -13250,7 +13250,7 @@
         <v>1284</v>
       </c>
       <c r="F303" t="s">
-        <v>1354</v>
+        <v>1371</v>
       </c>
       <c r="G303" t="s">
         <v>1635</v>
@@ -13276,7 +13276,7 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G304" t="s">
         <v>1636</v>
@@ -13374,7 +13374,7 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1417</v>
+        <v>1392</v>
       </c>
       <c r="G308" t="s">
         <v>1638</v>
@@ -13550,7 +13550,7 @@
         <v>1299</v>
       </c>
       <c r="F315" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="G315" t="s">
         <v>1641</v>
@@ -13602,7 +13602,7 @@
         <v>1284</v>
       </c>
       <c r="F317" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G317" t="s">
         <v>1642</v>
@@ -13700,7 +13700,7 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G321" t="s">
         <v>1643</v>
@@ -13726,7 +13726,7 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="G322" t="s">
         <v>1644</v>
@@ -13908,7 +13908,7 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="G329" t="s">
         <v>1647</v>
@@ -14012,7 +14012,7 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="G333" t="s">
         <v>1649</v>
@@ -14038,7 +14038,7 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G334" t="s">
         <v>1650</v>
@@ -14064,7 +14064,7 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G335" t="s">
         <v>1651</v>
@@ -14090,7 +14090,7 @@
         <v>1284</v>
       </c>
       <c r="F336" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="G336" t="s">
         <v>1652</v>
@@ -14116,7 +14116,7 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G337" t="s">
         <v>1653</v>
@@ -14168,7 +14168,7 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G339" t="s">
         <v>1548</v>
@@ -14194,7 +14194,7 @@
         <v>1284</v>
       </c>
       <c r="F340" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="G340" t="s">
         <v>1655</v>
@@ -14220,7 +14220,7 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1367</v>
+        <v>1337</v>
       </c>
       <c r="G341" t="s">
         <v>1656</v>
@@ -14246,7 +14246,7 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G342" t="s">
         <v>1657</v>
@@ -14298,7 +14298,7 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G344" t="s">
         <v>1659</v>
@@ -14376,7 +14376,7 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1417</v>
+        <v>1392</v>
       </c>
       <c r="G347" t="s">
         <v>1661</v>
@@ -14454,7 +14454,7 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G350" t="s">
         <v>1663</v>
@@ -14480,7 +14480,7 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G351" t="s">
         <v>1664</v>
@@ -14532,7 +14532,7 @@
         <v>1275</v>
       </c>
       <c r="F353" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G353" t="s">
         <v>1665</v>
@@ -14610,7 +14610,7 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1404</v>
+        <v>1427</v>
       </c>
       <c r="G356" t="s">
         <v>1666</v>
@@ -14636,7 +14636,7 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1354</v>
+        <v>1374</v>
       </c>
       <c r="G357" t="s">
         <v>1619</v>
@@ -14662,7 +14662,7 @@
         <v>1321</v>
       </c>
       <c r="F358" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G358" t="s">
         <v>1667</v>
@@ -14688,7 +14688,7 @@
         <v>1284</v>
       </c>
       <c r="F359" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G359" t="s">
         <v>1668</v>
@@ -14714,7 +14714,7 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G360" t="s">
         <v>1669</v>
@@ -14740,7 +14740,7 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G361" t="s">
         <v>1670</v>
@@ -14766,7 +14766,7 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G362" t="s">
         <v>1671</v>
@@ -14818,7 +14818,7 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G364" t="s">
         <v>1672</v>
@@ -14844,7 +14844,7 @@
         <v>1297</v>
       </c>
       <c r="F365" t="s">
-        <v>1354</v>
+        <v>1374</v>
       </c>
       <c r="G365" t="s">
         <v>1673</v>
@@ -14870,7 +14870,7 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G366" t="s">
         <v>1674</v>
@@ -14896,7 +14896,7 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1371</v>
+        <v>1351</v>
       </c>
       <c r="G367" t="s">
         <v>1675</v>
@@ -14922,7 +14922,7 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G368" t="s">
         <v>1676</v>
@@ -14974,7 +14974,7 @@
         <v>1284</v>
       </c>
       <c r="F370" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G370" t="s">
         <v>1677</v>
@@ -15026,7 +15026,7 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="G372" t="s">
         <v>1678</v>
@@ -15078,7 +15078,7 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="G374" t="s">
         <v>1680</v>
@@ -15130,7 +15130,7 @@
         <v>1284</v>
       </c>
       <c r="F376" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="G376" t="s">
         <v>1682</v>
@@ -15202,7 +15202,7 @@
         <v>1284</v>
       </c>
       <c r="F379" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="G379" t="s">
         <v>1684</v>
@@ -15254,7 +15254,7 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G381" t="s">
         <v>1686</v>
@@ -15300,7 +15300,7 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G383" t="s">
         <v>1687</v>
@@ -15372,7 +15372,7 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G386" t="s">
         <v>1688</v>
@@ -15398,7 +15398,7 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G387" t="s">
         <v>1689</v>
@@ -15424,7 +15424,7 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G388" t="s">
         <v>1690</v>
@@ -15450,7 +15450,7 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1417</v>
+        <v>1392</v>
       </c>
       <c r="G389" t="s">
         <v>1691</v>
@@ -15476,7 +15476,7 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G390" t="s">
         <v>1692</v>
@@ -15522,7 +15522,7 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G392" t="s">
         <v>1693</v>
@@ -15548,7 +15548,7 @@
         <v>1284</v>
       </c>
       <c r="F393" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="G393" t="s">
         <v>1694</v>
@@ -15594,7 +15594,7 @@
         <v>1284</v>
       </c>
       <c r="F395" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G395" t="s">
         <v>1695</v>
@@ -15764,7 +15764,7 @@
         <v>1293</v>
       </c>
       <c r="F402" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G402" t="s">
         <v>1697</v>
@@ -15816,7 +15816,7 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G404" t="s">
         <v>1504</v>
@@ -15842,7 +15842,7 @@
         <v>1293</v>
       </c>
       <c r="F405" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="G405" t="s">
         <v>1698</v>
@@ -15888,7 +15888,7 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1354</v>
+        <v>1374</v>
       </c>
       <c r="G407" t="s">
         <v>1699</v>
@@ -16038,7 +16038,7 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="G413" t="s">
         <v>1702</v>
@@ -16084,7 +16084,7 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1387</v>
+        <v>1437</v>
       </c>
       <c r="G415" t="s">
         <v>1703</v>
@@ -16156,7 +16156,7 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G418" t="s">
         <v>1705</v>
@@ -16202,7 +16202,7 @@
         <v>1284</v>
       </c>
       <c r="F420" t="s">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="G420" t="s">
         <v>1241</v>
@@ -16228,7 +16228,7 @@
         <v>1284</v>
       </c>
       <c r="F421" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G421" t="s">
         <v>1706</v>
@@ -16320,7 +16320,7 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G425" t="s">
         <v>1708</v>
@@ -16438,7 +16438,7 @@
         <v>1329</v>
       </c>
       <c r="F430" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G430" t="s">
         <v>1710</v>
@@ -16464,7 +16464,7 @@
         <v>1284</v>
       </c>
       <c r="F431" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G431" t="s">
         <v>1711</v>
@@ -16582,7 +16582,7 @@
         <v>1296</v>
       </c>
       <c r="F436" t="s">
-        <v>1354</v>
+        <v>1374</v>
       </c>
       <c r="G436" t="s">
         <v>1714</v>
@@ -16712,7 +16712,7 @@
         <v>1293</v>
       </c>
       <c r="F441" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="G441" t="s">
         <v>1717</v>
@@ -16862,7 +16862,7 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1293</v>
+        <v>1277</v>
       </c>
       <c r="G447" t="s">
         <v>1721</v>
@@ -17038,7 +17038,7 @@
         <v>1321</v>
       </c>
       <c r="F454" t="s">
-        <v>1376</v>
+        <v>1387</v>
       </c>
       <c r="G454" t="s">
         <v>1727</v>
@@ -17266,7 +17266,7 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G463" t="s">
         <v>1732</v>
